--- a/crc61_T4_OfficeLocations (1630503816450).xlsx
+++ b/crc61_T4_OfficeLocations (1630503816450).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbommu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sazeez\Documents\data\hackathon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F436C8B-648C-4555-96AF-B0996E3A36A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAE7E23-780F-4B14-8C6D-6FA19220100B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19035" yWindow="-15870" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Office Locations" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>LocatitonId</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>IL</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
   </si>
 </sst>
 </file>
@@ -229,9 +235,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="AxTable1" displayName="AxTable1" ref="A1:AD29" totalsRowShown="0">
-  <autoFilter ref="A1:AD29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="AxTable1" displayName="AxTable1" ref="A1:AF29" totalsRowShown="0">
+  <autoFilter ref="A1:AF29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="32">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LocatitonId"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Owner (Lookup)"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Status"/>
@@ -240,6 +246,8 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Name"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="State"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Zip"/>
+    <tableColumn id="31" xr3:uid="{4220F2CC-FA55-4599-A185-1923F8FF77E5}" name="lat"/>
+    <tableColumn id="32" xr3:uid="{1E5BC1D7-C11E-46EA-B558-C68911349DA8}" name="lon"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Created By (Lookup)"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Created By (Delegate) (Lookup)"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Created On"/>
@@ -564,7 +572,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="1" width="350" row="2">
+  <wetp:taskpane dockstate="right" visibility="0" width="525" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -587,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD7"/>
+  <dimension ref="A1:AF7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -603,30 +611,31 @@
     <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9"/>
     <col min="8" max="8" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23"/>
-    <col min="10" max="10" width="34"/>
-    <col min="11" max="11" width="14"/>
-    <col min="12" max="12" width="26"/>
-    <col min="13" max="13" width="24"/>
-    <col min="14" max="14" width="35"/>
-    <col min="15" max="15" width="15"/>
-    <col min="16" max="16" width="33"/>
-    <col min="17" max="17" width="24"/>
-    <col min="18" max="18" width="21"/>
-    <col min="19" max="19" width="17"/>
-    <col min="20" max="21" width="33"/>
-    <col min="22" max="22" width="18"/>
-    <col min="23" max="23" width="20"/>
-    <col min="24" max="24" width="14"/>
-    <col min="25" max="25" width="25"/>
-    <col min="26" max="26" width="15"/>
-    <col min="27" max="27" width="26"/>
-    <col min="28" max="28" width="9"/>
-    <col min="29" max="29" width="24"/>
-    <col min="30" max="30" width="15"/>
+    <col min="9" max="10" width="6.54296875" customWidth="1"/>
+    <col min="11" max="11" width="23"/>
+    <col min="12" max="12" width="34"/>
+    <col min="13" max="13" width="14"/>
+    <col min="14" max="14" width="26"/>
+    <col min="15" max="15" width="24"/>
+    <col min="16" max="16" width="35"/>
+    <col min="17" max="17" width="15"/>
+    <col min="18" max="18" width="33"/>
+    <col min="19" max="19" width="24"/>
+    <col min="20" max="20" width="21"/>
+    <col min="21" max="21" width="17"/>
+    <col min="22" max="23" width="33"/>
+    <col min="24" max="24" width="18"/>
+    <col min="25" max="25" width="20"/>
+    <col min="26" max="26" width="14"/>
+    <col min="27" max="27" width="25"/>
+    <col min="28" max="28" width="15"/>
+    <col min="29" max="29" width="26"/>
+    <col min="30" max="30" width="9"/>
+    <col min="31" max="31" width="24"/>
+    <col min="32" max="32" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -652,73 +661,79 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>36</v>
       </c>
@@ -734,8 +749,14 @@
       <c r="H2">
         <v>30308</v>
       </c>
+      <c r="I2">
+        <v>33.762700000000002</v>
+      </c>
+      <c r="J2">
+        <v>-84.385999999999996</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
         <v>37</v>
       </c>
@@ -751,8 +772,14 @@
       <c r="H3">
         <v>78701</v>
       </c>
+      <c r="I3">
+        <v>30.263000000000002</v>
+      </c>
+      <c r="J3">
+        <v>-97.742999999999995</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
         <v>38</v>
       </c>
@@ -768,8 +795,14 @@
       <c r="H4">
         <v>70801</v>
       </c>
+      <c r="I4">
+        <v>30.451000000000001</v>
+      </c>
+      <c r="J4">
+        <v>-91.188000000000002</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>39</v>
       </c>
@@ -785,8 +818,14 @@
       <c r="H5">
         <v>2111</v>
       </c>
+      <c r="I5">
+        <v>42.350999999999999</v>
+      </c>
+      <c r="J5">
+        <v>-71.057000000000002</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>40</v>
       </c>
@@ -802,8 +841,14 @@
       <c r="H6">
         <v>80303</v>
       </c>
+      <c r="I6">
+        <v>40.012999999999998</v>
+      </c>
+      <c r="J6">
+        <v>-105.239</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>41</v>
       </c>
@@ -818,6 +863,12 @@
       </c>
       <c r="H7">
         <v>60601</v>
+      </c>
+      <c r="I7">
+        <v>41.884</v>
+      </c>
+      <c r="J7">
+        <v>-87.62</v>
       </c>
     </row>
   </sheetData>

--- a/crc61_T4_OfficeLocations (1630503816450).xlsx
+++ b/crc61_T4_OfficeLocations (1630503816450).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sazeez\Documents\data\hackathon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAE7E23-780F-4B14-8C6D-6FA19220100B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56337A5-75E0-461D-9AA5-177287BED03E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>LocatitonId</t>
   </si>
@@ -180,6 +180,21 @@
   </si>
   <si>
     <t>lon</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>Fulton</t>
+  </si>
+  <si>
+    <t>Travis</t>
+  </si>
+  <si>
+    <t>Cool</t>
+  </si>
+  <si>
+    <t>Suffolk</t>
   </si>
 </sst>
 </file>
@@ -235,9 +250,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="AxTable1" displayName="AxTable1" ref="A1:AF29" totalsRowShown="0">
-  <autoFilter ref="A1:AF29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="AxTable1" displayName="AxTable1" ref="A1:AG29" totalsRowShown="0">
+  <autoFilter ref="A1:AG29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="33">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LocatitonId"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Owner (Lookup)"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Status"/>
@@ -248,6 +263,7 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Zip"/>
     <tableColumn id="31" xr3:uid="{4220F2CC-FA55-4599-A185-1923F8FF77E5}" name="lat"/>
     <tableColumn id="32" xr3:uid="{1E5BC1D7-C11E-46EA-B558-C68911349DA8}" name="lon"/>
+    <tableColumn id="33" xr3:uid="{B47B8C58-84C5-4E3B-93E5-8F284565ECE5}" name="County"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Created By (Lookup)"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Created By (Delegate) (Lookup)"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Created On"/>
@@ -595,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF7"/>
+  <dimension ref="A1:AG7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -611,31 +627,31 @@
     <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9"/>
     <col min="8" max="8" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6.54296875" customWidth="1"/>
-    <col min="11" max="11" width="23"/>
-    <col min="12" max="12" width="34"/>
-    <col min="13" max="13" width="14"/>
-    <col min="14" max="14" width="26"/>
-    <col min="15" max="15" width="24"/>
-    <col min="16" max="16" width="35"/>
-    <col min="17" max="17" width="15"/>
-    <col min="18" max="18" width="33"/>
-    <col min="19" max="19" width="24"/>
-    <col min="20" max="20" width="21"/>
-    <col min="21" max="21" width="17"/>
-    <col min="22" max="23" width="33"/>
-    <col min="24" max="24" width="18"/>
-    <col min="25" max="25" width="20"/>
-    <col min="26" max="26" width="14"/>
-    <col min="27" max="27" width="25"/>
-    <col min="28" max="28" width="15"/>
-    <col min="29" max="29" width="26"/>
-    <col min="30" max="30" width="9"/>
-    <col min="31" max="31" width="24"/>
-    <col min="32" max="32" width="15"/>
+    <col min="9" max="11" width="6.54296875" customWidth="1"/>
+    <col min="12" max="12" width="23"/>
+    <col min="13" max="13" width="34"/>
+    <col min="14" max="14" width="14"/>
+    <col min="15" max="15" width="26"/>
+    <col min="16" max="16" width="24"/>
+    <col min="17" max="17" width="35"/>
+    <col min="18" max="18" width="15"/>
+    <col min="19" max="19" width="33"/>
+    <col min="20" max="20" width="24"/>
+    <col min="21" max="21" width="21"/>
+    <col min="22" max="22" width="17"/>
+    <col min="23" max="24" width="33"/>
+    <col min="25" max="25" width="18"/>
+    <col min="26" max="26" width="20"/>
+    <col min="27" max="27" width="14"/>
+    <col min="28" max="28" width="25"/>
+    <col min="29" max="29" width="15"/>
+    <col min="30" max="30" width="26"/>
+    <col min="31" max="31" width="9"/>
+    <col min="32" max="32" width="24"/>
+    <col min="33" max="33" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -667,73 +683,76 @@
         <v>49</v>
       </c>
       <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>36</v>
       </c>
@@ -755,8 +774,11 @@
       <c r="J2">
         <v>-84.385999999999996</v>
       </c>
+      <c r="K2" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
         <v>37</v>
       </c>
@@ -778,8 +800,11 @@
       <c r="J3">
         <v>-97.742999999999995</v>
       </c>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
         <v>38</v>
       </c>
@@ -801,8 +826,11 @@
       <c r="J4">
         <v>-91.188000000000002</v>
       </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>39</v>
       </c>
@@ -824,8 +852,11 @@
       <c r="J5">
         <v>-71.057000000000002</v>
       </c>
+      <c r="K5" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>40</v>
       </c>
@@ -847,8 +878,11 @@
       <c r="J6">
         <v>-105.239</v>
       </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>41</v>
       </c>
@@ -869,6 +903,9 @@
       </c>
       <c r="J7">
         <v>-87.62</v>
+      </c>
+      <c r="K7" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
